--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -382,13 +382,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -398,13 +398,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +430,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -446,13 +446,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C24" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D27" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D28" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C34" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D35" t="n">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D36" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C37" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C38" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D39" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D40" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C42" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D42" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C44" t="n">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C45" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C46" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D46" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D48" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D50" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D51" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C53" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D53" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D54" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C55" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -382,13 +382,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -398,13 +398,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +414,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +430,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -446,13 +446,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -465,10 +465,10 @@
         <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
         <v>93</v>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C17" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D18" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C23" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D25" t="n">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D26" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C27" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C30" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D30" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D32" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C35" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C36" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D36" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D37" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C39" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C40" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C42" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D42" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C43" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C45" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D45" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="D46" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C47" t="n">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="D47" t="n">
         <v>32</v>
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C48" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C51" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D51" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C53" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C54" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D54" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D55" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
